--- a/VersionRecords/Version 5.2.0.6_beta 20161209/版本Bug和特性计划及评审表v5.2.0.6.xlsx
+++ b/VersionRecords/Version 5.2.0.6_beta 20161209/版本Bug和特性计划及评审表v5.2.0.6.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="版本5.2.0.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本5.2.0.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="定时器" sheetId="10" r:id="rId2"/>
     <sheet name="上线执行顺序" sheetId="8" r:id="rId3"/>
     <sheet name="配置文件（测试环境）" sheetId="9" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.2.0.4 新特性|Fix Bug'!$A$1:$U$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.2.0.6 新特性|Fix Bug'!$A$1:$U$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -251,13 +251,134 @@
   <si>
     <t>执行结果及报错补救方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>不紧急</t>
+  </si>
+  <si>
+    <t>新退房</t>
+    <rPh sb="0" eb="1">
+      <t>xin'tui'f</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>partner、partnerpc</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>孙伟、顾宝碗、田志敏</t>
+    <rPh sb="0" eb="1">
+      <t>s'w</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>g'b'w</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>t'z'm</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+  </si>
+  <si>
+    <t>施超、李敖、纪维玉</t>
+    <rPh sb="0" eb="1">
+      <t>s'c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>li'ao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'wei'yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>新账务</t>
+    <rPh sb="0" eb="1">
+      <t>xin'zhang'wu</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉、田志敏</t>
+    <rPh sb="0" eb="1">
+      <t>w'h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>t'z'm</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分支付不能合并支付</t>
+    <rPh sb="0" eb="1">
+      <t>bu'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'enng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he'b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi'fu</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterembed、partner、partnerpc</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉、武孟华</t>
+    <rPh sb="0" eb="1">
+      <t>w'h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>w'm'h</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <rPh sb="0" eb="1">
+      <t>s'c</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -427,6 +548,23 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="10">
@@ -671,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,6 +1067,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1315,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1410,76 +1569,172 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="47"/>
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A2" s="86">
+        <v>1</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="89">
+        <v>42712</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="89">
+        <v>42712</v>
+      </c>
+      <c r="K2" s="88"/>
+      <c r="L2" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="89">
+        <v>42712</v>
+      </c>
+      <c r="Q2" s="90" t="s">
+        <v>78</v>
+      </c>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
       <c r="T2" s="52"/>
-      <c r="U2" s="53"/>
+      <c r="U2" s="91"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="47"/>
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A3" s="86">
+        <v>2</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="89">
+        <v>42712</v>
+      </c>
+      <c r="I3" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="89">
+        <v>42712</v>
+      </c>
+      <c r="K3" s="88"/>
+      <c r="L3" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="89">
+        <v>42712</v>
+      </c>
+      <c r="Q3" s="90" t="s">
+        <v>78</v>
+      </c>
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
       <c r="T3" s="52"/>
-      <c r="U3" s="55"/>
+      <c r="U3" s="92"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="47"/>
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="86">
+        <v>3</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="89">
+        <v>42712</v>
+      </c>
+      <c r="I4" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="89">
+        <v>42712</v>
+      </c>
+      <c r="K4" s="88"/>
+      <c r="L4" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="89">
+        <v>42712</v>
+      </c>
+      <c r="Q4" s="90" t="s">
+        <v>78</v>
+      </c>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
       <c r="T4" s="52"/>
-      <c r="U4" s="53"/>
+      <c r="U4" s="91"/>
       <c r="V4" s="54"/>
     </row>
     <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -5216,10 +5471,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 T1:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -6537,7 +6792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
